--- a/logic.systems.school.managment/wwwroot/template/invoice.xlsx
+++ b/logic.systems.school.managment/wwwroot/template/invoice.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F7C03-15A6-4E61-B262-0C7E32704875}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF0072-20D6-4DFE-ACA2-F13997A5E1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13515" yWindow="-14535" windowWidth="17280" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recibo" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
       <t>Recibo  n</t>
     </r>
     <r>
@@ -60,6 +67,9 @@
     <t>ID do Estudante:</t>
   </si>
   <si>
+    <t>Tipo:</t>
+  </si>
+  <si>
     <t>Recebido do Aluno:</t>
   </si>
   <si>
@@ -75,13 +85,10 @@
     <t>Quantia</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve"> -----------------------------------------------------------</t>
   </si>
   <si>
-    <t>Tipo:</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -93,7 +100,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode=";;;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -223,18 +230,32 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="24"/>
-      <color theme="6" tint="-0.499984740745262"/>
+      <color rgb="FFFF0000"/>
       <name val="Garamond"/>
       <family val="1"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -258,7 +279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,83 +320,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -391,44 +349,104 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -440,171 +458,35 @@
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="4">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{255C58CD-D19B-4C8A-87F9-86D5BB4D0C05}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
-    </tableStyle>
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{255C58CD-D19B-4C8A-87F9-86D5BB4D0C05}"/>
   </tableStyles>
   <colors>
     <indexedColors>
@@ -687,25 +569,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>272754</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1258099</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>107457</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1543050" cy="1562100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A73699E-4E39-4635-B885-F790389A97EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -714,21 +591,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="272754" y="91108"/>
-          <a:ext cx="1540280" cy="1565197"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1543050" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,30 +607,19 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4DE35D18-0202-42E6-97EB-B1D844BCFCCB}" name="SalesDetails" displayName="SalesDetails" ref="B10:E11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B10:E11" xr:uid="{303D7532-482E-47BE-8488-13F01E6069D5}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesDetails" displayName="SalesDetails" ref="B10:E11" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3EE7F6C8-5045-4864-B814-17FE69D6126B}" name="Nº" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4C8D115E-5E41-4579-9149-DD7283E86948}" name="Classe" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B06CD4EE-D904-4883-BEEC-560EEC12BE98}" name="Ano" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D0E2D0D1-7103-4735-ACBD-A8E1FAD28416}" name="Quantia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Classe" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ano" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantia" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter Salesperson name, Job title, Payment Terms, and Due Date in this table"/>
-    </ext>
-  </extLst>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -996,212 +856,215 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="35" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="36" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="26" t="s">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="27" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="27" t="s">
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="37" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="28" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="25"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="25"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="32"/>
       <c r="B15" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="32"/>
       <c r="B16" s="44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="23"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B15:E15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Service Invoice in this worksheet. Helpful instructions on how to use this worksheet are in cells in this column. Arrow down to get started." sqref="A1" xr:uid="{D2639AF0-066E-48AE-913A-379E42CE84F0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter information in Sales Details starting in cell at right. Next instruction is in cell A16." sqref="A10" xr:uid="{39ECB3E9-AA80-4B85-9941-482302401DC9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company Name is auto updated in cell at right" sqref="A15" xr:uid="{48CF36E0-CE08-47A4-AC4E-C0962E5FF0C5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Thank You message is in cell at right" sqref="A16" xr:uid="{DA7E8F0C-BFD3-48F8-BBAD-B9EC5CC88558}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Street Address, City, State, and ZIP Code, Phone and Fax numbers, and E-mail address in cell at right" sqref="A17" xr:uid="{2B8DBFAA-FAFC-4B6E-88BC-B0AEA8F0768C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter bill to details such as Name, Company Name, Address, and Phone number in cells C7 through C11. _x000a__x000a_Enter Invoice Date, Invoice Number, and Customer ID in cells E7 through E9._x000a__x000a_Next instruction is in cell A13." sqref="A4" xr:uid="{21556B20-85C6-4515-81A7-1D6DE4E3A1DF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Service Invoice in this worksheet. Helpful instructions on how to use this worksheet are in cells in this column. Arrow down to get started." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter information in Sales Details starting in cell at right. Next instruction is in cell A16." sqref="A10" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company Name is auto updated in cell at right" sqref="A15" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Thank You message is in cell at right" sqref="A16" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Street Address, City, State, and ZIP Code, Phone and Fax numbers, and E-mail address in cell at right" sqref="A17" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter bill to details such as Name, Company Name, Address, and Phone number in cells C7 through C11. _x000a__x000a_Enter Invoice Date, Invoice Number, and Customer ID in cells E7 through E9._x000a__x000a_Next instruction is in cell A13." sqref="A4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
@@ -1211,23 +1074,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,29 +1395,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC5BE7D-8FB0-43CD-96B9-3135123127CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7C1696-6E99-4221-BCBD-CC938784C941}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1592,9 +1444,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7C1696-6E99-4221-BCBD-CC938784C941}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC5BE7D-8FB0-43CD-96B9-3135123127CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/logic.systems.school.managment/wwwroot/template/invoice.xlsx
+++ b/logic.systems.school.managment/wwwroot/template/invoice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF0072-20D6-4DFE-ACA2-F13997A5E1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB00D27-430B-4D7A-BAF9-33220BCAC6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="-14535" windowWidth="17280" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13950" yWindow="-14100" windowWidth="17280" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recibo" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>COOPERATIVA DE ENSINO KALIMANY</t>
-  </si>
-  <si>
-    <t>Avenida Ahmed Sekou Touré nº  750
-Telefone: 24213991 - Quilimane
-NUIT:400054940</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RECIBO</t>
   </si>
@@ -90,6 +82,20 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>NUIT:400054940</t>
+  </si>
+  <si>
+    <t>Telefone: 24213991 - Quilimane</t>
+  </si>
+  <si>
+    <t>Avenida Ahmed Sekou Touré nº  750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+COOPERATIVA DE ENSINO KALIMANY
+</t>
+  </si>
 </sst>
 </file>
 
@@ -191,14 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="6" tint="-0.499984740745262"/>
@@ -256,6 +254,13 @@
       <name val="Garamond"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -320,7 +325,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -334,44 +339,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -380,7 +376,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -389,7 +385,7 @@
     <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -413,29 +409,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -446,7 +424,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -572,11 +562,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>443782</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1543050" cy="1562100"/>
+    <xdr:ext cx="1221022" cy="1236096"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 3">
@@ -598,8 +588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1543050" cy="1562100"/>
+          <a:off x="443782" y="91440"/>
+          <a:ext cx="1221022" cy="1236096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -856,15 +846,15 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
@@ -872,195 +862,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="13" t="s">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="45" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="20">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="26"/>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="25"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="32"/>
-      <c r="B15" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="32"/>
-      <c r="B16" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="23"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A1:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Service Invoice in this worksheet. Helpful instructions on how to use this worksheet are in cells in this column. Arrow down to get started." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter information in Sales Details starting in cell at right. Next instruction is in cell A16." sqref="A10" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company Name is auto updated in cell at right" sqref="A15" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Thank You message is in cell at right" sqref="A16" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Street Address, City, State, and ZIP Code, Phone and Fax numbers, and E-mail address in cell at right" sqref="A17" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter bill to details such as Name, Company Name, Address, and Phone number in cells C7 through C11. _x000a__x000a_Enter Invoice Date, Invoice Number, and Customer ID in cells E7 through E9._x000a__x000a_Next instruction is in cell A13." sqref="A4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,15 +1067,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1394,6 +1378,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1415,14 +1408,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7C1696-6E99-4221-BCBD-CC938784C941}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161679B1-BDCC-4B36-9DCC-74E69E67B3EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1439,6 +1424,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7C1696-6E99-4221-BCBD-CC938784C941}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/logic.systems.school.managment/wwwroot/template/invoice.xlsx
+++ b/logic.systems.school.managment/wwwroot/template/invoice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB00D27-430B-4D7A-BAF9-33220BCAC6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF59420-6865-4314-A3D8-3057AEBF589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="-14100" windowWidth="17280" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9645" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recibo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>RECIBO</t>
   </si>
@@ -263,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +409,21 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -423,21 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -448,7 +442,32 @@
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Segoe UI"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Segoe UI"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Segoe UI"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Segoe UI"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="12"/>
@@ -598,16 +617,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>443782</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1221022" cy="1236096"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9CAD83-B493-4246-8127-35593F6A31A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="443782" y="91440"/>
+          <a:ext cx="1221022" cy="1236096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesDetails" displayName="SalesDetails" ref="B10:E11" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Classe" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ano" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Classe" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ano" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantia" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58FDB2F-0FBD-4DFB-869F-EDE6AFCAA918}" name="SalesDetails3" displayName="SalesDetails3" ref="B29:E30" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DB345C8F-9B60-4E2A-9925-57488BC1AF95}" name="Nº" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D9EEA968-9816-4A2F-A13F-AF6135462230}" name="Classe" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A80CE5FF-ADA8-4657-828C-B612E832A7AC}" name="Ano" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{24B569F7-8C64-476D-AD06-BDE5ECB5A36B}" name="Quantia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,10 +913,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -862,17 +932,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="12"/>
@@ -882,9 +952,9 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="13"/>
@@ -892,9 +962,9 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="39" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -904,9 +974,9 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -942,9 +1012,9 @@
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1005,30 +1075,30 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="29"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="29"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1039,29 +1109,213 @@
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="67.8" x14ac:dyDescent="0.45">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="23"/>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="22"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="22"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="22"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="29"/>
+      <c r="B34" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="29"/>
+      <c r="B35" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="20"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A1:B5"/>
+    <mergeCell ref="A20:B24"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Service Invoice in this worksheet. Helpful instructions on how to use this worksheet are in cells in this column. Arrow down to get started." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter information in Sales Details starting in cell at right. Next instruction is in cell A16." sqref="A10" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company Name is auto updated in cell at right" sqref="A15" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Thank You message is in cell at right" sqref="A16" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Street Address, City, State, and ZIP Code, Phone and Fax numbers, and E-mail address in cell at right" sqref="A17" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Service Invoice in this worksheet. Helpful instructions on how to use this worksheet are in cells in this column. Arrow down to get started." sqref="A1 A20" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter information in Sales Details starting in cell at right. Next instruction is in cell A16." sqref="A10 A29" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Company Name is auto updated in cell at right" sqref="A15 A34" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Thank You message is in cell at right" sqref="A16 A35" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Street Address, City, State, and ZIP Code, Phone and Fax numbers, and E-mail address in cell at right" sqref="A17 A36" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/logic.systems.school.managment/wwwroot/template/invoice.xlsx
+++ b/logic.systems.school.managment/wwwroot/template/invoice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF59420-6865-4314-A3D8-3057AEBF589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C81CCB-FBB9-45A8-9DC8-AC23E012F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recibo" sheetId="1" r:id="rId1"/>
@@ -83,16 +83,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>NUIT:400054940</t>
+    <t>Rua dos CFM Nacala-Porto</t>
   </si>
   <si>
-    <t>Telefone: 24213991 - Quilimane</t>
+    <t>Telefone: 87 317 7675</t>
   </si>
   <si>
-    <t>Avenida Ahmed Sekou Touré nº  750</t>
+    <t>NUIT:400279918</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve"> ESCOLA PRIMÁRIA E SECUNDÁRIA PANDA ALAGRIA NACALA-PORTO
 COOPERATIVA DE ENSINO KALIMANY
 </t>
   </si>
@@ -248,22 +248,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFE2DD11"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +325,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -335,9 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -406,20 +409,23 @@
     <xf numFmtId="165" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -432,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -442,7 +451,7 @@
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <sz val="12"/>
@@ -470,6 +479,26 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="12"/>
         <name val="Segoe UI"/>
       </font>
@@ -492,6 +521,26 @@
         <sz val="12"/>
         <name val="Segoe UI"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -564,6 +613,11 @@
       <rgbColor rgb="003B5E91"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFE2DD11"/>
+      <color rgb="FF7C9D13"/>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -578,20 +632,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>443782</xdr:colOff>
+      <xdr:colOff>178905</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>59635</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1221022" cy="1236096"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1080053</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146364</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D098DBF-F377-4FEA-90CC-39B6CD1FA451}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -600,15 +659,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="443782" y="91440"/>
-          <a:ext cx="1221022" cy="1236096"/>
+          <a:off x="178905" y="59635"/>
+          <a:ext cx="1470991" cy="1524590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,21 +681,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>443782</xdr:colOff>
+      <xdr:colOff>185530</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>58310</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1221022" cy="1236096"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1086678</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178170</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9CAD83-B493-4246-8127-35593F6A31A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F010F4C-8DAC-4CEC-8588-31EC1B50CEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -639,15 +709,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="443782" y="91440"/>
-          <a:ext cx="1221022" cy="1236096"/>
+          <a:off x="185530" y="4928484"/>
+          <a:ext cx="1470991" cy="1524590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,24 +731,24 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesDetails" displayName="SalesDetails" ref="B10:E11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesDetails" displayName="SalesDetails" ref="B10:E11" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Classe" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ano" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantia" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Classe" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ano" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantia" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58FDB2F-0FBD-4DFB-869F-EDE6AFCAA918}" name="SalesDetails3" displayName="SalesDetails3" ref="B29:E30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58FDB2F-0FBD-4DFB-869F-EDE6AFCAA918}" name="SalesDetails3" displayName="SalesDetails3" ref="B29:E30" totalsRowShown="0" headerRowDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DB345C8F-9B60-4E2A-9925-57488BC1AF95}" name="Nº" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D9EEA968-9816-4A2F-A13F-AF6135462230}" name="Classe" dataDxfId="2"/>
@@ -916,7 +992,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -934,358 +1010,358 @@
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="32" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
-      <c r="C3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
-      <c r="C5" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="22"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="11"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="30"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="67.8" x14ac:dyDescent="0.45">
+      <c r="C20" s="31"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.45">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="32" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
-      <c r="C22" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
-      <c r="C24" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="22"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="23"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="22"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="30"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
-      <c r="F36" s="30"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/logic.systems.school.managment/wwwroot/template/invoice.xlsx
+++ b/logic.systems.school.managment/wwwroot/template/invoice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C81CCB-FBB9-45A8-9DC8-AC23E012F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF59420-6865-4314-A3D8-3057AEBF589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9645" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recibo" sheetId="1" r:id="rId1"/>
@@ -83,16 +83,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Rua dos CFM Nacala-Porto</t>
+    <t>NUIT:400054940</t>
   </si>
   <si>
-    <t>Telefone: 87 317 7675</t>
+    <t>Telefone: 24213991 - Quilimane</t>
   </si>
   <si>
-    <t>NUIT:400279918</t>
+    <t>Avenida Ahmed Sekou Touré nº  750</t>
   </si>
   <si>
-    <t xml:space="preserve"> ESCOLA PRIMÁRIA E SECUNDÁRIA PANDA ALAGRIA NACALA-PORTO
+    <t xml:space="preserve">
 COOPERATIVA DE ENSINO KALIMANY
 </t>
   </si>
@@ -248,22 +248,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="6" tint="-0.499984740745262"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFE2DD11"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +319,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -341,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -409,23 +406,20 @@
     <xf numFmtId="165" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -438,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -451,7 +442,7 @@
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="8">
     <dxf>
       <font>
         <sz val="12"/>
@@ -479,26 +470,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="12"/>
         <name val="Segoe UI"/>
       </font>
@@ -521,26 +492,6 @@
         <sz val="12"/>
         <name val="Segoe UI"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -613,11 +564,6 @@
       <rgbColor rgb="003B5E91"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFE2DD11"/>
-      <color rgb="FF7C9D13"/>
-      <color rgb="FFFFFF00"/>
-    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -632,25 +578,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>178905</xdr:colOff>
+      <xdr:colOff>443782</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59635</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1080053</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>146364</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1221022" cy="1236096"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D098DBF-F377-4FEA-90CC-39B6CD1FA451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -659,21 +600,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="178905" y="59635"/>
-          <a:ext cx="1470991" cy="1524590"/>
+          <a:off x="443782" y="91440"/>
+          <a:ext cx="1221022" cy="1236096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,26 +616,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>185530</xdr:colOff>
+      <xdr:colOff>443782</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>58310</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1086678</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>178170</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1221022" cy="1236096"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F010F4C-8DAC-4CEC-8588-31EC1B50CEE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9CAD83-B493-4246-8127-35593F6A31A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -709,21 +639,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="185530" y="4928484"/>
-          <a:ext cx="1470991" cy="1524590"/>
+          <a:off x="443782" y="91440"/>
+          <a:ext cx="1221022" cy="1236096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,24 +655,24 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesDetails" displayName="SalesDetails" ref="B10:E11" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SalesDetails" displayName="SalesDetails" ref="B10:E11" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Classe" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ano" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantia" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nº" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Classe" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ano" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantia" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58FDB2F-0FBD-4DFB-869F-EDE6AFCAA918}" name="SalesDetails3" displayName="SalesDetails3" ref="B29:E30" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D58FDB2F-0FBD-4DFB-869F-EDE6AFCAA918}" name="SalesDetails3" displayName="SalesDetails3" ref="B29:E30" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DB345C8F-9B60-4E2A-9925-57488BC1AF95}" name="Nº" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D9EEA968-9816-4A2F-A13F-AF6135462230}" name="Classe" dataDxfId="2"/>
@@ -992,7 +916,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1010,358 +934,358 @@
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
-      <c r="C3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
-      <c r="C5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="21"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="21"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="10"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+      <c r="C20" s="33"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="67.8" x14ac:dyDescent="0.45">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="41" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
-      <c r="C22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
-      <c r="C24" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="17">
         <v>1</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="21"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="22"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="28"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="29"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
-      <c r="F36" s="29"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
